--- a/output/0/tRNA-Gly-CCC-2-2.xlsx
+++ b/output/0/tRNA-Gly-CCC-2-2.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="81">
   <si>
     <t>chr16</t>
   </si>
@@ -255,138 +255,6 @@
   </si>
   <si>
     <t>60</t>
-  </si>
-  <si>
-    <t>687084</t>
-  </si>
-  <si>
-    <t>687107</t>
-  </si>
-  <si>
-    <t>687104</t>
-  </si>
-  <si>
-    <t>GGGCGGGGCTGGGGAGAGGG</t>
-  </si>
-  <si>
-    <t>19% (38)</t>
-  </si>
-  <si>
-    <t>100% (101)</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>687260</t>
-  </si>
-  <si>
-    <t>687283</t>
-  </si>
-  <si>
-    <t>687280</t>
-  </si>
-  <si>
-    <t>GCAGGGGCGGCAGGGGCGGC</t>
-  </si>
-  <si>
-    <t>AGG</t>
-  </si>
-  <si>
-    <t>3% (23)</t>
-  </si>
-  <si>
-    <t>80% (61)</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>687261</t>
-  </si>
-  <si>
-    <t>687284</t>
-  </si>
-  <si>
-    <t>687281</t>
-  </si>
-  <si>
-    <t>CAGGGGCGGCAGGGGCGGCA</t>
-  </si>
-  <si>
-    <t>11% (32)</t>
-  </si>
-  <si>
-    <t>98% (85)</t>
-  </si>
-  <si>
-    <t>687262</t>
-  </si>
-  <si>
-    <t>687285</t>
-  </si>
-  <si>
-    <t>687282</t>
-  </si>
-  <si>
-    <t>AGGGGCGGCAGGGGCGGCAG</t>
-  </si>
-  <si>
-    <t>8% (30)</t>
-  </si>
-  <si>
-    <t>100% (100)</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>687265</t>
-  </si>
-  <si>
-    <t>687288</t>
-  </si>
-  <si>
-    <t>GGCGGCAGGGGCGGCAGGGG</t>
-  </si>
-  <si>
-    <t>3% (22)</t>
-  </si>
-  <si>
-    <t>99% (89)</t>
-  </si>
-  <si>
-    <t>687271</t>
-  </si>
-  <si>
-    <t>687294</t>
-  </si>
-  <si>
-    <t>687291</t>
-  </si>
-  <si>
-    <t>100% (97)</t>
-  </si>
-  <si>
-    <t>687274</t>
-  </si>
-  <si>
-    <t>687297</t>
-  </si>
-  <si>
-    <t>59</t>
-  </si>
-  <si>
-    <t>687303</t>
-  </si>
-  <si>
-    <t>687300</t>
-  </si>
-  <si>
-    <t>98% (87)</t>
-  </si>
-  <si>
-    <t>67</t>
   </si>
 </sst>
 </file>
@@ -431,7 +299,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S18"/>
+  <dimension ref="A1:S10"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1027,478 +895,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" t="s">
-        <v>81</v>
-      </c>
-      <c r="C11" t="s">
-        <v>82</v>
-      </c>
-      <c r="D11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F11" t="s">
-        <v>81</v>
-      </c>
-      <c r="G11" t="s">
-        <v>83</v>
-      </c>
-      <c r="H11" t="s">
-        <v>6</v>
-      </c>
-      <c r="I11" t="s">
-        <v>6</v>
-      </c>
-      <c r="J11" t="s">
-        <v>7</v>
-      </c>
-      <c r="K11" t="s">
-        <v>84</v>
-      </c>
-      <c r="L11" t="s">
-        <v>9</v>
-      </c>
-      <c r="M11" t="s">
-        <v>10</v>
-      </c>
-      <c r="N11" t="s">
-        <v>85</v>
-      </c>
-      <c r="O11" t="s">
-        <v>86</v>
-      </c>
-      <c r="P11" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>73</v>
-      </c>
-      <c r="R11" t="s">
-        <v>15</v>
-      </c>
-      <c r="S11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" t="s">
-        <v>88</v>
-      </c>
-      <c r="C12" t="s">
-        <v>89</v>
-      </c>
-      <c r="D12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" t="s">
-        <v>88</v>
-      </c>
-      <c r="G12" t="s">
-        <v>90</v>
-      </c>
-      <c r="H12" t="s">
-        <v>6</v>
-      </c>
-      <c r="I12" t="s">
-        <v>6</v>
-      </c>
-      <c r="J12" t="s">
-        <v>7</v>
-      </c>
-      <c r="K12" t="s">
-        <v>91</v>
-      </c>
-      <c r="L12" t="s">
-        <v>92</v>
-      </c>
-      <c r="M12" t="s">
-        <v>10</v>
-      </c>
-      <c r="N12" t="s">
-        <v>93</v>
-      </c>
-      <c r="O12" t="s">
-        <v>94</v>
-      </c>
-      <c r="P12" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>95</v>
-      </c>
-      <c r="R12" t="s">
-        <v>15</v>
-      </c>
-      <c r="S12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" t="s">
-        <v>96</v>
-      </c>
-      <c r="C13" t="s">
-        <v>97</v>
-      </c>
-      <c r="D13" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13" t="s">
-        <v>4</v>
-      </c>
-      <c r="F13" t="s">
-        <v>96</v>
-      </c>
-      <c r="G13" t="s">
-        <v>98</v>
-      </c>
-      <c r="H13" t="s">
-        <v>6</v>
-      </c>
-      <c r="I13" t="s">
-        <v>6</v>
-      </c>
-      <c r="J13" t="s">
-        <v>7</v>
-      </c>
-      <c r="K13" t="s">
-        <v>99</v>
-      </c>
-      <c r="L13" t="s">
-        <v>20</v>
-      </c>
-      <c r="M13" t="s">
-        <v>10</v>
-      </c>
-      <c r="N13" t="s">
-        <v>100</v>
-      </c>
-      <c r="O13" t="s">
-        <v>101</v>
-      </c>
-      <c r="P13" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>95</v>
-      </c>
-      <c r="R13" t="s">
-        <v>15</v>
-      </c>
-      <c r="S13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" t="s">
-        <v>102</v>
-      </c>
-      <c r="C14" t="s">
-        <v>103</v>
-      </c>
-      <c r="D14" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" t="s">
-        <v>102</v>
-      </c>
-      <c r="G14" t="s">
-        <v>104</v>
-      </c>
-      <c r="H14" t="s">
-        <v>6</v>
-      </c>
-      <c r="I14" t="s">
-        <v>6</v>
-      </c>
-      <c r="J14" t="s">
-        <v>7</v>
-      </c>
-      <c r="K14" t="s">
-        <v>105</v>
-      </c>
-      <c r="L14" t="s">
-        <v>20</v>
-      </c>
-      <c r="M14" t="s">
-        <v>10</v>
-      </c>
-      <c r="N14" t="s">
-        <v>106</v>
-      </c>
-      <c r="O14" t="s">
-        <v>107</v>
-      </c>
-      <c r="P14" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>108</v>
-      </c>
-      <c r="R14" t="s">
-        <v>15</v>
-      </c>
-      <c r="S14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" t="s">
-        <v>109</v>
-      </c>
-      <c r="C15" t="s">
-        <v>110</v>
-      </c>
-      <c r="D15" t="s">
-        <v>3</v>
-      </c>
-      <c r="E15" t="s">
-        <v>4</v>
-      </c>
-      <c r="F15" t="s">
-        <v>109</v>
-      </c>
-      <c r="G15" t="s">
-        <v>103</v>
-      </c>
-      <c r="H15" t="s">
-        <v>6</v>
-      </c>
-      <c r="I15" t="s">
-        <v>6</v>
-      </c>
-      <c r="J15" t="s">
-        <v>7</v>
-      </c>
-      <c r="K15" t="s">
-        <v>111</v>
-      </c>
-      <c r="L15" t="s">
-        <v>9</v>
-      </c>
-      <c r="M15" t="s">
-        <v>10</v>
-      </c>
-      <c r="N15" t="s">
-        <v>112</v>
-      </c>
-      <c r="O15" t="s">
-        <v>113</v>
-      </c>
-      <c r="P15" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>95</v>
-      </c>
-      <c r="R15" t="s">
-        <v>15</v>
-      </c>
-      <c r="S15" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" t="s">
-        <v>114</v>
-      </c>
-      <c r="C16" t="s">
-        <v>115</v>
-      </c>
-      <c r="D16" t="s">
-        <v>3</v>
-      </c>
-      <c r="E16" t="s">
-        <v>4</v>
-      </c>
-      <c r="F16" t="s">
-        <v>114</v>
-      </c>
-      <c r="G16" t="s">
-        <v>116</v>
-      </c>
-      <c r="H16" t="s">
-        <v>6</v>
-      </c>
-      <c r="I16" t="s">
-        <v>6</v>
-      </c>
-      <c r="J16" t="s">
-        <v>7</v>
-      </c>
-      <c r="K16" t="s">
-        <v>105</v>
-      </c>
-      <c r="L16" t="s">
-        <v>20</v>
-      </c>
-      <c r="M16" t="s">
-        <v>10</v>
-      </c>
-      <c r="N16" t="s">
-        <v>106</v>
-      </c>
-      <c r="O16" t="s">
-        <v>117</v>
-      </c>
-      <c r="P16" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>95</v>
-      </c>
-      <c r="R16" t="s">
-        <v>15</v>
-      </c>
-      <c r="S16" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" t="s">
-        <v>118</v>
-      </c>
-      <c r="C17" t="s">
-        <v>119</v>
-      </c>
-      <c r="D17" t="s">
-        <v>3</v>
-      </c>
-      <c r="E17" t="s">
-        <v>4</v>
-      </c>
-      <c r="F17" t="s">
-        <v>118</v>
-      </c>
-      <c r="G17" t="s">
-        <v>115</v>
-      </c>
-      <c r="H17" t="s">
-        <v>6</v>
-      </c>
-      <c r="I17" t="s">
-        <v>6</v>
-      </c>
-      <c r="J17" t="s">
-        <v>7</v>
-      </c>
-      <c r="K17" t="s">
-        <v>111</v>
-      </c>
-      <c r="L17" t="s">
-        <v>9</v>
-      </c>
-      <c r="M17" t="s">
-        <v>10</v>
-      </c>
-      <c r="N17" t="s">
-        <v>112</v>
-      </c>
-      <c r="O17" t="s">
-        <v>113</v>
-      </c>
-      <c r="P17" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>120</v>
-      </c>
-      <c r="R17" t="s">
-        <v>15</v>
-      </c>
-      <c r="S17" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" t="s">
-        <v>90</v>
-      </c>
-      <c r="C18" t="s">
-        <v>121</v>
-      </c>
-      <c r="D18" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18" t="s">
-        <v>4</v>
-      </c>
-      <c r="F18" t="s">
-        <v>90</v>
-      </c>
-      <c r="G18" t="s">
-        <v>122</v>
-      </c>
-      <c r="H18" t="s">
-        <v>6</v>
-      </c>
-      <c r="I18" t="s">
-        <v>6</v>
-      </c>
-      <c r="J18" t="s">
-        <v>7</v>
-      </c>
-      <c r="K18" t="s">
-        <v>105</v>
-      </c>
-      <c r="L18" t="s">
-        <v>92</v>
-      </c>
-      <c r="M18" t="s">
-        <v>10</v>
-      </c>
-      <c r="N18" t="s">
-        <v>44</v>
-      </c>
-      <c r="O18" t="s">
-        <v>123</v>
-      </c>
-      <c r="P18" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>124</v>
-      </c>
-      <c r="R18" t="s">
-        <v>15</v>
-      </c>
-      <c r="S18" t="s">
-        <v>3</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
